--- a/全様式Excel（在職者の方）/様式3-1.xlsx
+++ b/全様式Excel（在職者の方）/様式3-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-takano\Desktop\test\全様式Excel（在職者の方）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B027B-E053-43F3-AA3F-EC7F3E767253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613357C8-274C-464D-8284-57CD167D2B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1500" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="8460" windowWidth="21555" windowHeight="9615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="様式3-1（Ver.1.22）" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,15 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="Esub一覧" hidden="1">#REF!</definedName>
     <definedName name="ＨＵＵ" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'様式3-1（Ver.1.22）'!$B$1:$I$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'様式3-1（Ver.1.22）'!$B$1:$I$22</definedName>
     <definedName name="あ" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>様式３－１　職業能力証明（免許・資格）シート</t>
     <rPh sb="0" eb="2">
@@ -165,13 +165,6 @@
   </si>
   <si>
     <t>d2</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>(注意事項）</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>１　「免許・資格の内容等」欄には、必要に応じて、免許・資格付与の基準・目安等も記入（又は添付）してく
@@ -230,49 +223,164 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ITパスポート</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>2021</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>9</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>普通自動車免許</t>
-    <rPh sb="0" eb="5">
-      <t>フツウジドウシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <t>1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITパスポート試験</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ITに関する知識や経営全般の知識、プロジェクトマネジメントの知識などを問う国家試験</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>普通自動車第一種運転免許</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ダイイッシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>メンキョ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>2025</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>柏崎自動車学校</t>
-    <rPh sb="0" eb="7">
+    <t>日本国内の公道で普通自動車、小型特殊自動車、原動機付自転車を運転可</t>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MicrosoftOfficeSpecialist
+PowerPoint 2016</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MicrosoftOfficeSpecialist
+Word 2016 Expert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MicrosoftOfficeSpecialist 
+Excel 2016 Expert</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MicrosoftOfficeSpecialist 
+Access 2016</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MOS Master 2016</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイピング技能検定イータイピング・マスター1級取得</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>認定機関の名称:柏崎自動車学校</t>
+    <rPh sb="8" eb="15">
       <t>カシワザキジドウシャガッコウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>最近限定解除しました。</t>
-    <rPh sb="0" eb="2">
-      <t>サイキン</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ゲンテイカイジョ</t>
+    <t>認定機関の名称:独立行政法人 情報処理推進機構</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>認定機関の名称:Microsoft</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>認定機関の名称:タイピング技能検定イータイピング・マスター事務局</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Microsoft Office（MOS）の資格の1つで、Wordの高度な機能を扱える能力を証明するもの</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Microsoft Office（MOS）の資格の1つで、Excelの高度な機能を扱える能力を証明するもの</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Microsoft Office（MOS）の資格の1つで、Accessの基本的な機能を扱える能力を証明するもの</t>
+    <rPh sb="36" eb="39">
+      <t>キホンテキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Microsoft Office（MOS）の資格の1つで、PowerPointの基本的な機能を扱える能力を証明するもの</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>正確さと速さともに非常に高いタイピング技能を証明するもの</t>
+    <rPh sb="22" eb="24">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マイクロソフト社が提供するオフィス製品の操作スキルを証明する資格である最上位のMOS（Microsoft Office Specialist）の称号</t>
+    <rPh sb="35" eb="38">
+      <t>サイジョウイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -858,7 +966,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,18 +978,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -904,6 +1000,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -928,26 +1032,70 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -958,62 +1106,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1357,10 +1449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.25" customHeight="1"/>
@@ -1373,33 +1465,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" thickBot="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="29"/>
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="21"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -1414,34 +1506,34 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" thickBot="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="37"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -1450,142 +1542,174 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="48.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="57" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="57" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="48.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="57" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="48.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="57" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -1594,77 +1718,221 @@
       <c r="B14" s="12">
         <v>5</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="48.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="12" customHeight="1">
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="57" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>6</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="57" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12">
+        <v>7</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="57" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="159.94999999999999" customHeight="1">
+      <c r="B22" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="159.94999999999999" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="30">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+  <mergeCells count="41">
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1673,22 +1941,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -1729,8 +1983,8 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
